--- a/Temp/brightoncity.xlsx
+++ b/Temp/brightoncity.xlsx
@@ -90,160 +90,160 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>2075</t>
-  </si>
-  <si>
-    <t>2237</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>367</t>
-  </si>
-  <si>
-    <t>945</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>730</t>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>2252</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>371</t>
   </si>
   <si>
     <t>954</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>2480</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>2539</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>2317</t>
-  </si>
-  <si>
-    <t>2524</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>1137</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>2483</t>
-  </si>
-  <si>
-    <t>2532</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>994</t>
-  </si>
-  <si>
-    <t>1355</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>753</t>
-  </si>
-  <si>
-    <t>787</t>
-  </si>
-  <si>
-    <t>1056</t>
-  </si>
-  <si>
-    <t>1479</t>
-  </si>
-  <si>
-    <t>1781</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>1313</t>
-  </si>
-  <si>
-    <t>1769</t>
-  </si>
-  <si>
-    <t>1836</t>
-  </si>
-  <si>
-    <t>297</t>
+    <t>725</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>1032</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>2496</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>2556</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>2540</t>
+  </si>
+  <si>
+    <t>785</t>
+  </si>
+  <si>
+    <t>1147</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>1646</t>
+  </si>
+  <si>
+    <t>2499</t>
+  </si>
+  <si>
+    <t>2549</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>795</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1491</t>
   </si>
   <si>
     <t>1794</t>
   </si>
   <si>
-    <t>2309</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>923</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>2324</t>
   </si>
   <si>
     <t>Rodri</t>
@@ -267,12 +267,12 @@
     <t>Billy Gilmour</t>
   </si>
   <si>
+    <t>Pascal Groß</t>
+  </si>
+  <si>
     <t>Ederson</t>
   </si>
   <si>
-    <t>Pascal Groß</t>
-  </si>
-  <si>
     <t>Manuel Akanji</t>
   </si>
   <si>
@@ -300,6 +300,9 @@
     <t>Mateo Kovačić</t>
   </si>
   <si>
+    <t>Simon Adingra</t>
+  </si>
+  <si>
     <t>Tariq Lamptey</t>
   </si>
   <si>
@@ -321,9 +324,6 @@
     <t>Kyle Walker</t>
   </si>
   <si>
-    <t>Simon Adingra</t>
-  </si>
-  <si>
     <t>Ansu Fati</t>
   </si>
   <si>
@@ -420,12 +420,12 @@
     <t>sct SCO</t>
   </si>
   <si>
+    <t>de GER</t>
+  </si>
+  <si>
     <t>br BRA</t>
   </si>
   <si>
-    <t>de GER</t>
-  </si>
-  <si>
     <t>ch SUI</t>
   </si>
   <si>
@@ -444,12 +444,12 @@
     <t>hr CRO</t>
   </si>
   <si>
+    <t>ci CIV</t>
+  </si>
+  <si>
     <t>gh GHA</t>
   </si>
   <si>
-    <t>ci CIV</t>
-  </si>
-  <si>
     <t>pl POL</t>
   </si>
   <si>
@@ -474,12 +474,12 @@
     <t>DF</t>
   </si>
   <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
     <t>GK</t>
   </si>
   <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
     <t>DF,MF</t>
   </si>
   <si>
@@ -501,160 +501,160 @@
     <t>eng Premier League</t>
   </si>
   <si>
-    <t>27-314</t>
-  </si>
-  <si>
-    <t>29-265</t>
+    <t>27-320</t>
+  </si>
+  <si>
+    <t>29-271</t>
+  </si>
+  <si>
+    <t>20-125</t>
+  </si>
+  <si>
+    <t>19-136</t>
+  </si>
+  <si>
+    <t>28-240</t>
+  </si>
+  <si>
+    <t>32-168</t>
+  </si>
+  <si>
+    <t>22-331</t>
+  </si>
+  <si>
+    <t>32-327</t>
+  </si>
+  <si>
+    <t>30-264</t>
+  </si>
+  <si>
+    <t>28-293</t>
+  </si>
+  <si>
+    <t>26-107</t>
+  </si>
+  <si>
+    <t>23-334</t>
+  </si>
+  <si>
+    <t>26-090</t>
+  </si>
+  <si>
+    <t>26-353</t>
+  </si>
+  <si>
+    <t>32-113</t>
+  </si>
+  <si>
+    <t>21-346</t>
+  </si>
+  <si>
+    <t>22-105</t>
+  </si>
+  <si>
+    <t>30-001</t>
+  </si>
+  <si>
+    <t>22-127</t>
+  </si>
+  <si>
+    <t>23-220</t>
+  </si>
+  <si>
+    <t>38-124</t>
+  </si>
+  <si>
+    <t>33-163</t>
+  </si>
+  <si>
+    <t>24-097</t>
+  </si>
+  <si>
+    <t>32-314</t>
+  </si>
+  <si>
+    <t>29-345</t>
+  </si>
+  <si>
+    <t>33-345</t>
+  </si>
+  <si>
+    <t>21-189</t>
+  </si>
+  <si>
+    <t>22-224</t>
+  </si>
+  <si>
+    <t>35-363</t>
+  </si>
+  <si>
+    <t>25-030</t>
+  </si>
+  <si>
+    <t>21-263</t>
+  </si>
+  <si>
+    <t>29-124</t>
+  </si>
+  <si>
+    <t>23-345</t>
+  </si>
+  <si>
+    <t>23-291</t>
+  </si>
+  <si>
+    <t>19-168</t>
+  </si>
+  <si>
+    <t>19-289</t>
+  </si>
+  <si>
+    <t>28-127</t>
+  </si>
+  <si>
+    <t>20-105</t>
+  </si>
+  <si>
+    <t>19-201</t>
+  </si>
+  <si>
+    <t>19-026</t>
+  </si>
+  <si>
+    <t>29-292</t>
+  </si>
+  <si>
+    <t>19-114</t>
+  </si>
+  <si>
+    <t>29-079</t>
+  </si>
+  <si>
+    <t>20-300</t>
+  </si>
+  <si>
+    <t>26-359</t>
+  </si>
+  <si>
+    <t>23-246</t>
+  </si>
+  <si>
+    <t>29-346</t>
+  </si>
+  <si>
+    <t>25-254</t>
+  </si>
+  <si>
+    <t>31-183</t>
   </si>
   <si>
     <t>20-119</t>
   </si>
   <si>
-    <t>19-130</t>
-  </si>
-  <si>
-    <t>28-234</t>
-  </si>
-  <si>
-    <t>32-162</t>
-  </si>
-  <si>
-    <t>22-325</t>
-  </si>
-  <si>
-    <t>30-258</t>
-  </si>
-  <si>
-    <t>32-321</t>
-  </si>
-  <si>
-    <t>28-287</t>
-  </si>
-  <si>
-    <t>26-101</t>
-  </si>
-  <si>
-    <t>23-328</t>
-  </si>
-  <si>
-    <t>26-084</t>
-  </si>
-  <si>
-    <t>26-347</t>
-  </si>
-  <si>
-    <t>32-107</t>
-  </si>
-  <si>
-    <t>21-340</t>
-  </si>
-  <si>
-    <t>22-099</t>
-  </si>
-  <si>
-    <t>29-361</t>
-  </si>
-  <si>
-    <t>23-214</t>
-  </si>
-  <si>
-    <t>38-118</t>
-  </si>
-  <si>
-    <t>33-157</t>
-  </si>
-  <si>
-    <t>24-091</t>
-  </si>
-  <si>
-    <t>32-308</t>
-  </si>
-  <si>
-    <t>29-339</t>
-  </si>
-  <si>
-    <t>33-339</t>
-  </si>
-  <si>
-    <t>22-121</t>
-  </si>
-  <si>
-    <t>21-183</t>
-  </si>
-  <si>
-    <t>22-218</t>
-  </si>
-  <si>
-    <t>35-357</t>
-  </si>
-  <si>
-    <t>25-024</t>
-  </si>
-  <si>
-    <t>21-257</t>
-  </si>
-  <si>
-    <t>29-118</t>
-  </si>
-  <si>
-    <t>23-339</t>
-  </si>
-  <si>
-    <t>23-285</t>
-  </si>
-  <si>
-    <t>19-162</t>
-  </si>
-  <si>
-    <t>19-283</t>
-  </si>
-  <si>
-    <t>28-121</t>
-  </si>
-  <si>
-    <t>20-099</t>
-  </si>
-  <si>
-    <t>19-195</t>
-  </si>
-  <si>
-    <t>19-020</t>
-  </si>
-  <si>
-    <t>29-286</t>
-  </si>
-  <si>
-    <t>19-108</t>
-  </si>
-  <si>
-    <t>29-073</t>
-  </si>
-  <si>
-    <t>20-294</t>
-  </si>
-  <si>
-    <t>26-353</t>
-  </si>
-  <si>
-    <t>23-240</t>
-  </si>
-  <si>
-    <t>29-340</t>
-  </si>
-  <si>
-    <t>25-248</t>
-  </si>
-  <si>
-    <t>31-177</t>
-  </si>
-  <si>
-    <t>20-113</t>
-  </si>
-  <si>
-    <t>21-188</t>
-  </si>
-  <si>
-    <t>33-257</t>
+    <t>21-194</t>
+  </si>
+  <si>
+    <t>33-263</t>
   </si>
   <si>
     <t>1996</t>
@@ -914,7 +914,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>2190.0</v>
+        <v>2204.0</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -938,7 +938,7 @@
         <v>214</v>
       </c>
       <c r="J2" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="K2" t="n">
         <v>8.0</v>
@@ -953,16 +953,16 @@
         <v>38.0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="P2" t="n">
         <v>6.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="R2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="S2" t="n">
         <v>39.0</v>
@@ -977,16 +977,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.0</v>
+        <v>212.0</v>
       </c>
       <c r="X2" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="Y2" t="n">
         <v>22.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>69.4</v>
+        <v>69.9</v>
       </c>
     </row>
     <row r="3">
@@ -994,7 +994,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>2361.0</v>
+        <v>2376.0</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
@@ -1018,7 +1018,7 @@
         <v>215</v>
       </c>
       <c r="J3" t="n">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="K3" t="n">
         <v>7.0</v>
@@ -1036,16 +1036,16 @@
         <v>23.0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="R3" t="n">
         <v>16.0</v>
       </c>
       <c r="S3" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1057,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>88.0</v>
+        <v>90.0</v>
       </c>
       <c r="X3" t="n">
         <v>1.0</v>
@@ -1074,7 +1074,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>191.0</v>
+        <v>194.0</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -1098,7 +1098,7 @@
         <v>216</v>
       </c>
       <c r="J4" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="K4" t="n">
         <v>7.0</v>
@@ -1137,7 +1137,7 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="X4" t="n">
         <v>22.0</v>
@@ -1154,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>395.0</v>
+        <v>399.0</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -1178,7 +1178,7 @@
         <v>216</v>
       </c>
       <c r="J5" t="n">
-        <v>13.0</v>
+        <v>13.7</v>
       </c>
       <c r="K5" t="n">
         <v>7.0</v>
@@ -1190,10 +1190,10 @@
         <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="O5" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="P5" t="n">
         <v>3.0</v>
@@ -1202,10 +1202,10 @@
         <v>5.0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="S5" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
@@ -1217,16 +1217,16 @@
         <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="X5" t="n">
         <v>5.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.8</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="6">
@@ -1234,7 +1234,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>1003.0</v>
+        <v>1012.0</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -1258,7 +1258,7 @@
         <v>217</v>
       </c>
       <c r="J6" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K6" t="n">
         <v>6.0</v>
@@ -1273,7 +1273,7 @@
         <v>6.0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="P6" t="n">
         <v>2.0</v>
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="X6" t="n">
         <v>3.0</v>
@@ -1314,7 +1314,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>761.0</v>
+        <v>768.0</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -1338,7 +1338,7 @@
         <v>218</v>
       </c>
       <c r="J7" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="K7" t="n">
         <v>6.0</v>
@@ -1350,7 +1350,7 @@
         <v>0.0</v>
       </c>
       <c r="N7" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="O7" t="n">
         <v>11.0</v>
@@ -1362,31 +1362,31 @@
         <v>7.0</v>
       </c>
       <c r="R7" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>30.0</v>
       </c>
-      <c r="S7" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>28.0</v>
-      </c>
       <c r="Z7" t="n">
-        <v>65.9</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="8">
@@ -1394,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>952.0</v>
+        <v>961.0</v>
       </c>
       <c r="C8" t="s">
         <v>83</v>
@@ -1418,7 +1418,7 @@
         <v>219</v>
       </c>
       <c r="J8" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="K8" t="n">
         <v>6.0</v>
@@ -1430,7 +1430,7 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="O8" t="n">
         <v>28.0</v>
@@ -1439,7 +1439,7 @@
         <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="R8" t="n">
         <v>9.0</v>
@@ -1457,7 +1457,7 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>117.0</v>
+        <v>120.0</v>
       </c>
       <c r="X8" t="n">
         <v>11.0</v>
@@ -1474,7 +1474,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>773.0</v>
+        <v>1021.0</v>
       </c>
       <c r="C9" t="s">
         <v>84</v>
@@ -1486,7 +1486,7 @@
         <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
         <v>161</v>
@@ -1495,13 +1495,13 @@
         <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J9" t="n">
-        <v>28.2</v>
+        <v>31.6</v>
       </c>
       <c r="K9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
@@ -1510,22 +1510,22 @@
         <v>0.0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="O9" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.0</v>
       </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0.0</v>
+        <v>218.0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="T9" t="n">
         <v>0.0</v>
@@ -1537,16 +1537,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>46.0</v>
+        <v>133.0</v>
       </c>
       <c r="X9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>100.0</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="10">
@@ -1554,7 +1554,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>1012.0</v>
+        <v>780.0</v>
       </c>
       <c r="C10" t="s">
         <v>85</v>
@@ -1566,7 +1566,7 @@
         <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
         <v>161</v>
@@ -1575,10 +1575,10 @@
         <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J10" t="n">
-        <v>30.6</v>
+        <v>29.2</v>
       </c>
       <c r="K10" t="n">
         <v>5.0</v>
@@ -1590,22 +1590,22 @@
         <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>214.0</v>
+        <v>0.0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" t="n">
         <v>0.0</v>
@@ -1617,16 +1617,16 @@
         <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0</v>
+        <v>50.0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>44.4</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="11">
@@ -1634,7 +1634,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C11" t="s">
         <v>86</v>
@@ -1658,7 +1658,7 @@
         <v>217</v>
       </c>
       <c r="J11" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="K11" t="n">
         <v>4.0</v>
@@ -1670,7 +1670,7 @@
         <v>1.0</v>
       </c>
       <c r="N11" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="O11" t="n">
         <v>19.0</v>
@@ -1682,10 +1682,10 @@
         <v>9.0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="S11" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1697,16 +1697,16 @@
         <v>0.0</v>
       </c>
       <c r="W11" t="n">
-        <v>128.0</v>
+        <v>133.0</v>
       </c>
       <c r="X11" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="Y11" t="n">
         <v>27.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>48.1</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="12">
@@ -1714,7 +1714,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>810.0</v>
+        <v>817.0</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
@@ -1794,7 +1794,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>1082.0</v>
+        <v>1091.0</v>
       </c>
       <c r="C13" t="s">
         <v>88</v>
@@ -1874,13 +1874,13 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>1151.0</v>
+        <v>1161.0</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
         <v>152</v>
@@ -1898,7 +1898,7 @@
         <v>221</v>
       </c>
       <c r="J14" t="n">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="K14" t="n">
         <v>4.0</v>
@@ -1922,7 +1922,7 @@
         <v>1.0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="S14" t="n">
         <v>13.0</v>
@@ -1937,7 +1937,7 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="X14" t="n">
         <v>25.0</v>
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1727.0</v>
+        <v>1739.0</v>
       </c>
       <c r="C15" t="s">
         <v>90</v>
@@ -2034,7 +2034,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>2613.0</v>
+        <v>2629.0</v>
       </c>
       <c r="C16" t="s">
         <v>91</v>
@@ -2058,7 +2058,7 @@
         <v>224</v>
       </c>
       <c r="J16" t="n">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
       <c r="K16" t="n">
         <v>4.0</v>
@@ -2070,22 +2070,22 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O16" t="n">
         <v>41.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="S16" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="T16" t="n">
         <v>0.0</v>
@@ -2097,16 +2097,16 @@
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>72.0</v>
+        <v>76.0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="17">
@@ -2114,7 +2114,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>721.0</v>
+        <v>728.0</v>
       </c>
       <c r="C17" t="s">
         <v>92</v>
@@ -2138,7 +2138,7 @@
         <v>225</v>
       </c>
       <c r="J17" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.0</v>
@@ -2159,7 +2159,7 @@
         <v>5.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="R17" t="n">
         <v>9.0</v>
@@ -2194,7 +2194,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1050.0</v>
+        <v>1059.0</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
@@ -2218,7 +2218,7 @@
         <v>225</v>
       </c>
       <c r="J18" t="n">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
@@ -2230,25 +2230,25 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="O18" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="P18" t="n">
         <v>2.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="R18" t="n">
         <v>23.0</v>
       </c>
       <c r="S18" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" t="n">
         <v>0.0</v>
@@ -2257,16 +2257,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>132.0</v>
+        <v>137.0</v>
       </c>
       <c r="X18" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y18" t="n">
         <v>22.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>56.9</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="19">
@@ -2274,7 +2274,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>1342.0</v>
+        <v>1354.0</v>
       </c>
       <c r="C19" t="s">
         <v>94</v>
@@ -2298,7 +2298,7 @@
         <v>215</v>
       </c>
       <c r="J19" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="K19" t="n">
         <v>3.0</v>
@@ -2310,10 +2310,10 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="O19" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
@@ -2322,7 +2322,7 @@
         <v>0.0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="S19" t="n">
         <v>23.0</v>
@@ -2337,7 +2337,7 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="X19" t="n">
         <v>4.0</v>
@@ -2354,7 +2354,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>1386.0</v>
+        <v>25.0</v>
       </c>
       <c r="C20" t="s">
         <v>95</v>
@@ -2363,7 +2363,7 @@
         <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
         <v>160</v>
@@ -2375,10 +2375,10 @@
         <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J20" t="n">
-        <v>8.5</v>
+        <v>21.8</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
@@ -2390,43 +2390,43 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
       <c r="O20" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>24.0</v>
+        <v>72.0</v>
       </c>
       <c r="R20" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="S20" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>27.0</v>
+        <v>106.0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>44.4</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="21">
@@ -2434,16 +2434,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>1707.0</v>
+        <v>1398.0</v>
       </c>
       <c r="C21" t="s">
         <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
         <v>160</v>
@@ -2455,10 +2455,10 @@
         <v>181</v>
       </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J21" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
@@ -2470,22 +2470,22 @@
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="O21" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="P21" t="n">
         <v>3.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="S21" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -2497,16 +2497,16 @@
         <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>45.0</v>
+        <v>27.0</v>
       </c>
       <c r="X21" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>31.6</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="22">
@@ -2514,7 +2514,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2680.0</v>
+        <v>1719.0</v>
       </c>
       <c r="C22" t="s">
         <v>97</v>
@@ -2523,7 +2523,7 @@
         <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
         <v>160</v>
@@ -2535,10 +2535,10 @@
         <v>182</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J22" t="n">
-        <v>15.6</v>
+        <v>8.6</v>
       </c>
       <c r="K22" t="n">
         <v>3.0</v>
@@ -2550,43 +2550,43 @@
         <v>0.0</v>
       </c>
       <c r="N22" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="R22" t="n">
         <v>8.0</v>
       </c>
-      <c r="O22" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>9.0</v>
-      </c>
       <c r="S22" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V22" t="n">
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="X22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>13.0</v>
       </c>
-      <c r="Y22" t="n">
-        <v>19.0</v>
-      </c>
       <c r="Z22" t="n">
-        <v>40.6</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="23">
@@ -2594,19 +2594,19 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>88.0</v>
+        <v>2697.0</v>
       </c>
       <c r="C23" t="s">
         <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
         <v>161</v>
@@ -2615,13 +2615,13 @@
         <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J23" t="n">
-        <v>29.2</v>
+        <v>16.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -2630,25 +2630,25 @@
         <v>0.0</v>
       </c>
       <c r="N23" t="n">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="O23" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.0</v>
+        <v>3.0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="S23" t="n">
         <v>13.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U23" t="n">
         <v>0.0</v>
@@ -2657,16 +2657,16 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>96.0</v>
+        <v>39.0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>14.3</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="24">
@@ -2674,16 +2674,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>637.0</v>
+        <v>89.0</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
         <v>159</v>
@@ -2695,10 +2695,10 @@
         <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J24" t="n">
-        <v>10.1</v>
+        <v>29.3</v>
       </c>
       <c r="K24" t="n">
         <v>2.0</v>
@@ -2710,25 +2710,25 @@
         <v>0.0</v>
       </c>
       <c r="N24" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.0</v>
+        <v>137.0</v>
       </c>
       <c r="R24" t="n">
         <v>2.0</v>
       </c>
       <c r="S24" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U24" t="n">
         <v>0.0</v>
@@ -2737,16 +2737,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>36.0</v>
+        <v>97.0</v>
       </c>
       <c r="X24" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>50.0</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="25">
@@ -2754,16 +2754,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2445.0</v>
+        <v>644.0</v>
       </c>
       <c r="C25" t="s">
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F25" t="s">
         <v>159</v>
@@ -2775,10 +2775,10 @@
         <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J25" t="n">
-        <v>11.6</v>
+        <v>11.0</v>
       </c>
       <c r="K25" t="n">
         <v>2.0</v>
@@ -2790,43 +2790,43 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="O25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="X25" t="n">
         <v>5.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>13.0</v>
       </c>
       <c r="Y25" t="n">
         <v>5.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>72.2</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="26">
@@ -2834,7 +2834,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2664.0</v>
+        <v>2460.0</v>
       </c>
       <c r="C26" t="s">
         <v>101</v>
@@ -2843,7 +2843,7 @@
         <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
         <v>159</v>
@@ -2855,10 +2855,10 @@
         <v>186</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="J26" t="n">
-        <v>27.0</v>
+        <v>11.8</v>
       </c>
       <c r="K26" t="n">
         <v>2.0</v>
@@ -2870,22 +2870,22 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>23.0</v>
+        <v>4.0</v>
       </c>
       <c r="O26" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="P26" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.0</v>
+        <v>5.0</v>
       </c>
       <c r="R26" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="S26" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="T26" t="n">
         <v>0.0</v>
@@ -2897,16 +2897,16 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>140.0</v>
+        <v>46.0</v>
       </c>
       <c r="X26" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>63.9</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="27">
@@ -2914,19 +2914,19 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>24.0</v>
+        <v>2680.0</v>
       </c>
       <c r="C27" t="s">
         <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
         <v>161</v>
@@ -2935,10 +2935,10 @@
         <v>187</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J27" t="n">
-        <v>20.9</v>
+        <v>28.0</v>
       </c>
       <c r="K27" t="n">
         <v>2.0</v>
@@ -2950,22 +2950,22 @@
         <v>0.0</v>
       </c>
       <c r="N27" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="O27" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="P27" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.0</v>
+        <v>58.0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="S27" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="T27" t="n">
         <v>0.0</v>
@@ -2977,16 +2977,16 @@
         <v>0.0</v>
       </c>
       <c r="W27" t="n">
-        <v>100.0</v>
+        <v>141.0</v>
       </c>
       <c r="X27" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>42.1</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="28">
@@ -2994,7 +2994,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>826.0</v>
+        <v>834.0</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
@@ -3074,13 +3074,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>1204.0</v>
+        <v>1214.0</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
         <v>151</v>
@@ -3098,7 +3098,7 @@
         <v>219</v>
       </c>
       <c r="J29" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3113,13 +3113,13 @@
         <v>17.0</v>
       </c>
       <c r="O29" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="P29" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="R29" t="n">
         <v>10.0</v>
@@ -3137,16 +3137,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="X29" t="n">
         <v>37.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>63.8</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="30">
@@ -3154,7 +3154,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1381.0</v>
+        <v>1393.0</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
@@ -3234,7 +3234,7 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1734.0</v>
+        <v>1746.0</v>
       </c>
       <c r="C31" t="s">
         <v>106</v>
@@ -3297,7 +3297,7 @@
         <v>0.0</v>
       </c>
       <c r="W31" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="X31" t="n">
         <v>2.0</v>
@@ -3314,7 +3314,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>2616.0</v>
+        <v>2632.0</v>
       </c>
       <c r="C32" t="s">
         <v>107</v>
@@ -3323,7 +3323,7 @@
         <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
         <v>160</v>
@@ -3338,7 +3338,7 @@
         <v>225</v>
       </c>
       <c r="J32" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K32" t="n">
         <v>2.0</v>
@@ -3380,7 +3380,7 @@
         <v>29.0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y32" t="n">
         <v>0.0</v>
@@ -3394,7 +3394,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>2672.0</v>
+        <v>2689.0</v>
       </c>
       <c r="C33" t="s">
         <v>108</v>
@@ -3418,7 +3418,7 @@
         <v>217</v>
       </c>
       <c r="J33" t="n">
-        <v>8.7</v>
+        <v>9.7</v>
       </c>
       <c r="K33" t="n">
         <v>2.0</v>
@@ -3442,10 +3442,10 @@
         <v>1.0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="S33" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="T33" t="n">
         <v>0.0</v>
@@ -3457,16 +3457,16 @@
         <v>1.0</v>
       </c>
       <c r="W33" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="X33" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>69.4</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="34">
@@ -3474,7 +3474,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>861.0</v>
+        <v>870.0</v>
       </c>
       <c r="C34" t="s">
         <v>109</v>
@@ -3498,7 +3498,7 @@
         <v>222</v>
       </c>
       <c r="J34" t="n">
-        <v>28.0</v>
+        <v>28.9</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
@@ -3513,13 +3513,13 @@
         <v>12.0</v>
       </c>
       <c r="O34" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="P34" t="n">
         <v>4.0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="R34" t="n">
         <v>13.0</v>
@@ -3537,7 +3537,7 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>116.0</v>
+        <v>118.0</v>
       </c>
       <c r="X34" t="n">
         <v>6.0</v>
@@ -3554,7 +3554,7 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>1053.0</v>
+        <v>1062.0</v>
       </c>
       <c r="C35" t="s">
         <v>110</v>
@@ -3578,7 +3578,7 @@
         <v>222</v>
       </c>
       <c r="J35" t="n">
-        <v>24.6</v>
+        <v>25.5</v>
       </c>
       <c r="K35" t="n">
         <v>1.0</v>
@@ -3593,10 +3593,10 @@
         <v>15.0</v>
       </c>
       <c r="O35" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q35" t="n">
         <v>5.0</v>
@@ -3608,7 +3608,7 @@
         <v>2.0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U35" t="n">
         <v>0.0</v>
@@ -3617,16 +3617,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>39.0</v>
+        <v>43.0</v>
       </c>
       <c r="X35" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="Y35" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>47.9</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="36">
@@ -3634,7 +3634,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>1433.0</v>
+        <v>1445.0</v>
       </c>
       <c r="C36" t="s">
         <v>111</v>
@@ -3714,7 +3714,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>208.0</v>
+        <v>211.0</v>
       </c>
       <c r="C37" t="s">
         <v>112</v>
@@ -3753,7 +3753,7 @@
         <v>5.0</v>
       </c>
       <c r="O37" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P37" t="n">
         <v>0.0</v>
@@ -3794,13 +3794,13 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>607.0</v>
+        <v>614.0</v>
       </c>
       <c r="C38" t="s">
         <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
         <v>149</v>
@@ -3874,7 +3874,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>798.0</v>
+        <v>805.0</v>
       </c>
       <c r="C39" t="s">
         <v>114</v>
@@ -3898,7 +3898,7 @@
         <v>216</v>
       </c>
       <c r="J39" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
         <v>1.0</v>
@@ -3919,13 +3919,13 @@
         <v>1.0</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R39" t="n">
         <v>0.0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T39" t="n">
         <v>0.0</v>
@@ -3937,16 +3937,16 @@
         <v>0.0</v>
       </c>
       <c r="W39" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y39" t="n">
         <v>1.0</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="40">
@@ -3954,7 +3954,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>837.0</v>
+        <v>845.0</v>
       </c>
       <c r="C40" t="s">
         <v>115</v>
@@ -4034,7 +4034,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1117.0</v>
+        <v>1126.0</v>
       </c>
       <c r="C41" t="s">
         <v>116</v>
@@ -4114,7 +4114,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1566.0</v>
+        <v>1578.0</v>
       </c>
       <c r="C42" t="s">
         <v>117</v>
@@ -4194,7 +4194,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1884.0</v>
+        <v>1897.0</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
@@ -4274,7 +4274,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C44" t="s">
         <v>119</v>
@@ -4298,7 +4298,7 @@
         <v>217</v>
       </c>
       <c r="J44" t="n">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="K44" t="n">
         <v>0.0</v>
@@ -4313,19 +4313,19 @@
         <v>10.0</v>
       </c>
       <c r="O44" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="P44" t="n">
         <v>0.0</v>
       </c>
       <c r="Q44" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="R44" t="n">
         <v>13.0</v>
       </c>
       <c r="S44" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="T44" t="n">
         <v>0.0</v>
@@ -4337,16 +4337,16 @@
         <v>0.0</v>
       </c>
       <c r="W44" t="n">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="X44" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="Y44" t="n">
         <v>28.0</v>
       </c>
       <c r="Z44" t="n">
-        <v>61.1</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="45">
@@ -4354,7 +4354,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>321.0</v>
+        <v>324.0</v>
       </c>
       <c r="C45" t="s">
         <v>120</v>
@@ -4434,7 +4434,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>682.0</v>
+        <v>689.0</v>
       </c>
       <c r="C46" t="s">
         <v>121</v>
@@ -4514,7 +4514,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>971.0</v>
+        <v>980.0</v>
       </c>
       <c r="C47" t="s">
         <v>122</v>
@@ -4594,7 +4594,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>1389.0</v>
+        <v>1401.0</v>
       </c>
       <c r="C48" t="s">
         <v>123</v>
@@ -4674,7 +4674,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>1872.0</v>
+        <v>1885.0</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
@@ -4698,7 +4698,7 @@
         <v>221</v>
       </c>
       <c r="J49" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="K49" t="n">
         <v>0.0</v>
@@ -4754,16 +4754,16 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>1940.0</v>
+        <v>1953.0</v>
       </c>
       <c r="C50" t="s">
         <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
         <v>159</v>
@@ -4834,7 +4834,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>319.0</v>
+        <v>322.0</v>
       </c>
       <c r="C51" t="s">
         <v>126</v>
@@ -4914,7 +4914,7 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>1897.0</v>
+        <v>1910.0</v>
       </c>
       <c r="C52" t="s">
         <v>127</v>
@@ -4994,7 +4994,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>2436.0</v>
+        <v>2451.0</v>
       </c>
       <c r="C53" t="s">
         <v>128</v>
@@ -5003,7 +5003,7 @@
         <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F53" t="s">
         <v>160</v>
@@ -5189,7 +5189,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="n">
-        <v>1053.0</v>
+        <v>1062.0</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
@@ -5213,34 +5213,34 @@
         <v>222</v>
       </c>
       <c r="J2" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K2" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>24.6</v>
+        <v>25.5</v>
       </c>
       <c r="N2" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="O2" t="n">
         <v>5.0</v>
       </c>
       <c r="P2" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T2" t="n">
         <v>1.0</v>
@@ -5249,43 +5249,43 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>24.0</v>
+        <v>26.2</v>
       </c>
       <c r="W2" t="n">
-        <v>20.1</v>
+        <v>20.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.0</v>
+        <v>118.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="AD2" t="n">
         <v>0.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.69</v>
+        <v>0.75</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -5293,7 +5293,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="n">
-        <v>861.0</v>
+        <v>870.0</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
@@ -5317,25 +5317,25 @@
         <v>222</v>
       </c>
       <c r="J3" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>28.0</v>
+        <v>28.9</v>
       </c>
       <c r="N3" t="n">
         <v>16.0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="Q3" t="n">
         <v>16.0</v>
@@ -5353,40 +5353,40 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="W3" t="n">
-        <v>9.3</v>
+        <v>9.6</v>
       </c>
       <c r="X3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>89.0</v>
+        <v>91.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.0</v>
+        <v>153.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.0</v>
+        <v>253.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AH3" t="n">
         <v>0.33</v>
@@ -5394,13 +5394,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
@@ -5415,13 +5415,13 @@
         <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
         <v>222</v>
       </c>
       <c r="J4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K4" t="n">
         <v>31.0</v>
@@ -5430,19 +5430,19 @@
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="N4" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O4" t="n">
         <v>8.0</v>
       </c>
       <c r="P4" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="R4" t="n">
         <v>1.0</v>
@@ -5457,16 +5457,16 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="W4" t="n">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="X4" t="n">
         <v>6.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="Z4" t="n">
         <v>63.0</v>
@@ -5475,25 +5475,25 @@
         <v>103.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.0</v>
+        <v>177.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="AD4" t="n">
         <v>0.27</v>
       </c>
       <c r="AE4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0.58</v>
       </c>
-      <c r="AF4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.55</v>
-      </c>
       <c r="AH4" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -5501,13 +5501,13 @@
         <v>52</v>
       </c>
       <c r="B5" t="n">
-        <v>1204.0</v>
+        <v>1214.0</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
         <v>151</v>
@@ -5525,34 +5525,34 @@
         <v>219</v>
       </c>
       <c r="J5" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K5" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>19.7</v>
+        <v>20.7</v>
       </c>
       <c r="N5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="O5" t="n">
         <v>2.0</v>
       </c>
       <c r="P5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R5" t="n">
         <v>4.0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T5" t="n">
         <v>2.0</v>
@@ -5561,43 +5561,43 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>10.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="X5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.0</v>
+        <v>83.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>183.0</v>
+        <v>187.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AD5" t="n">
         <v>0.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -5605,7 +5605,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>2190.0</v>
+        <v>2204.0</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -5629,25 +5629,25 @@
         <v>214</v>
       </c>
       <c r="J6" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K6" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>28.6</v>
+        <v>29.6</v>
       </c>
       <c r="N6" t="n">
         <v>7.0</v>
       </c>
       <c r="O6" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="P6" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="Q6" t="n">
         <v>7.0</v>
@@ -5671,34 +5671,34 @@
         <v>3.8</v>
       </c>
       <c r="X6" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>332.0</v>
+        <v>344.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="AH6" t="n">
         <v>0.13</v>
@@ -5709,7 +5709,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="n">
-        <v>2361.0</v>
+        <v>2376.0</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
@@ -5733,16 +5733,16 @@
         <v>215</v>
       </c>
       <c r="J7" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="K7" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L7" t="e">
         <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
       <c r="N7" t="n">
         <v>6.0</v>
@@ -5769,40 +5769,40 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>124.0</v>
+        <v>125.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.0</v>
+        <v>162.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>221.0</v>
+        <v>235.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AH7" t="n">
         <v>0.14</v>
@@ -5810,16 +5810,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
         <v>156</v>
@@ -5831,22 +5831,22 @@
         <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I8" t="s">
         <v>225</v>
       </c>
       <c r="J8" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="K8" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L8" t="e">
         <v>#N/A</v>
       </c>
       <c r="M8" t="n">
-        <v>20.9</v>
+        <v>21.8</v>
       </c>
       <c r="N8" t="n">
         <v>6.0</v>
@@ -5867,49 +5867,49 @@
         <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U8" t="n">
         <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="W8" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="X8" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>245.0</v>
+        <v>258.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AD8" t="n">
         <v>0.05</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
@@ -5917,7 +5917,7 @@
         <v>63</v>
       </c>
       <c r="B9" t="n">
-        <v>837.0</v>
+        <v>845.0</v>
       </c>
       <c r="C9" t="s">
         <v>115</v>
@@ -6018,13 +6018,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="n">
-        <v>637.0</v>
+        <v>644.0</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>141</v>
@@ -6039,22 +6039,22 @@
         <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I10" t="s">
         <v>218</v>
       </c>
       <c r="J10" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>989.0</v>
+      </c>
+      <c r="M10" t="n">
         <v>11.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>911.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>10.1</v>
       </c>
       <c r="N10" t="n">
         <v>4.0</v>
@@ -6081,60 +6081,60 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.0</v>
+        <v>98.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.0</v>
+        <v>108.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="n">
-        <v>1012.0</v>
+        <v>1021.0</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>160</v>
@@ -6143,22 +6143,22 @@
         <v>161</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" t="s">
         <v>218</v>
       </c>
       <c r="J11" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K11" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>30.6</v>
+        <v>31.6</v>
       </c>
       <c r="N11" t="n">
         <v>4.0</v>
@@ -6179,60 +6179,60 @@
         <v>1.0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="W11" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="X11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>275.0</v>
+        <v>277.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>166.0</v>
+        <v>170.0</v>
       </c>
       <c r="AC11" t="n">
         <v>0.13</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n">
-        <v>2680.0</v>
+        <v>2697.0</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>133</v>
@@ -6247,22 +6247,22 @@
         <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I12" t="s">
         <v>227</v>
       </c>
       <c r="J12" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K12" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L12" t="e">
         <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
       <c r="N12" t="n">
         <v>4.0</v>
@@ -6289,16 +6289,16 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X12" t="n">
         <v>1.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
         <v>30.0</v>
@@ -6307,25 +6307,25 @@
         <v>42.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AD12" t="n">
         <v>0.06</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AF12" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AH12" t="n">
         <v>0.26</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.27</v>
       </c>
     </row>
     <row r="13">
@@ -6333,7 +6333,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>721.0</v>
+        <v>728.0</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
@@ -6357,7 +6357,7 @@
         <v>225</v>
       </c>
       <c r="J13" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K13" t="n">
         <v>17.0</v>
@@ -6366,7 +6366,7 @@
         <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N13" t="n">
         <v>3.0</v>
@@ -6399,34 +6399,34 @@
         <v>2.3</v>
       </c>
       <c r="X13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>193.0</v>
+        <v>196.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>273.0</v>
+        <v>276.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AD13" t="n">
         <v>0.43</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="AH13" t="n">
         <v>0.14</v>
@@ -6437,7 +6437,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="n">
-        <v>1003.0</v>
+        <v>1012.0</v>
       </c>
       <c r="C14" t="s">
         <v>81</v>
@@ -6461,16 +6461,16 @@
         <v>217</v>
       </c>
       <c r="J14" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K14" t="n">
         <v>10.0</v>
       </c>
-      <c r="L14" t="n">
-        <v>998.0</v>
+      <c r="L14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="N14" t="n">
         <v>3.0</v>
@@ -6541,7 +6541,7 @@
         <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>395.0</v>
+        <v>399.0</v>
       </c>
       <c r="C15" t="s">
         <v>80</v>
@@ -6565,16 +6565,16 @@
         <v>216</v>
       </c>
       <c r="J15" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K15" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>13.0</v>
+        <v>13.7</v>
       </c>
       <c r="N15" t="n">
         <v>3.0</v>
@@ -6616,28 +6616,28 @@
         <v>20.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB15" t="n">
         <v>63.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="16">
@@ -6645,7 +6645,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>761.0</v>
+        <v>768.0</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -6669,16 +6669,16 @@
         <v>218</v>
       </c>
       <c r="J16" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="L16" t="e">
         <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="N16" t="n">
         <v>3.0</v>
@@ -6732,13 +6732,13 @@
         <v>0.03</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AF16" t="n">
         <v>0.1</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AH16" t="n">
         <v>0.1</v>
@@ -6749,7 +6749,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="n">
-        <v>1117.0</v>
+        <v>1126.0</v>
       </c>
       <c r="C17" t="s">
         <v>116</v>
@@ -6853,7 +6853,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="n">
-        <v>1566.0</v>
+        <v>1578.0</v>
       </c>
       <c r="C18" t="s">
         <v>117</v>
@@ -6957,7 +6957,7 @@
         <v>38</v>
       </c>
       <c r="B19" t="n">
-        <v>1727.0</v>
+        <v>1739.0</v>
       </c>
       <c r="C19" t="s">
         <v>90</v>
@@ -7061,7 +7061,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C20" t="s">
         <v>86</v>
@@ -7085,16 +7085,16 @@
         <v>217</v>
       </c>
       <c r="J20" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K20" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="L20" t="e">
         <v>#N/A</v>
       </c>
       <c r="M20" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="N20" t="n">
         <v>2.0</v>
@@ -7121,22 +7121,22 @@
         <v>1.0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="W20" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
         <v>0.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>128.0</v>
+        <v>133.0</v>
       </c>
       <c r="AB20" t="n">
         <v>34.0</v>
@@ -7157,7 +7157,7 @@
         <v>0.08</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
@@ -7165,7 +7165,7 @@
         <v>67</v>
       </c>
       <c r="B21" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -7189,16 +7189,16 @@
         <v>217</v>
       </c>
       <c r="J21" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K21" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
       <c r="M21" t="n">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="N21" t="n">
         <v>2.0</v>
@@ -7237,13 +7237,13 @@
         <v>3.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AC21" t="n">
         <v>0.09</v>
@@ -7252,16 +7252,16 @@
         <v>0.09</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AF21" t="n">
         <v>0.09</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
@@ -7269,7 +7269,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="n">
-        <v>1050.0</v>
+        <v>1059.0</v>
       </c>
       <c r="C22" t="s">
         <v>93</v>
@@ -7293,16 +7293,16 @@
         <v>225</v>
       </c>
       <c r="J22" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>21.9</v>
+        <v>22.9</v>
       </c>
       <c r="N22" t="n">
         <v>2.0</v>
@@ -7329,43 +7329,43 @@
         <v>0.0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="X22" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.0</v>
+        <v>3.6</v>
       </c>
       <c r="Z22" t="n">
         <v>56.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>119.0</v>
+        <v>123.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>88.0</v>
+        <v>92.0</v>
       </c>
       <c r="AC22" t="n">
         <v>0.09</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AF22" t="n">
         <v>0.09</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="23">
@@ -7373,7 +7373,7 @@
         <v>59</v>
       </c>
       <c r="B23" t="n">
-        <v>1433.0</v>
+        <v>1445.0</v>
       </c>
       <c r="C23" t="s">
         <v>111</v>
@@ -7477,7 +7477,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="n">
-        <v>810.0</v>
+        <v>817.0</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -7581,7 +7581,7 @@
         <v>51</v>
       </c>
       <c r="B25" t="n">
-        <v>826.0</v>
+        <v>834.0</v>
       </c>
       <c r="C25" t="s">
         <v>103</v>
@@ -7685,7 +7685,7 @@
         <v>68</v>
       </c>
       <c r="B26" t="n">
-        <v>321.0</v>
+        <v>324.0</v>
       </c>
       <c r="C26" t="s">
         <v>120</v>
@@ -7789,7 +7789,7 @@
         <v>42</v>
       </c>
       <c r="B27" t="n">
-        <v>1342.0</v>
+        <v>1354.0</v>
       </c>
       <c r="C27" t="s">
         <v>94</v>
@@ -7813,16 +7813,16 @@
         <v>215</v>
       </c>
       <c r="J27" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K27" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
@@ -7858,16 +7858,16 @@
         <v>1.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>87.0</v>
+        <v>93.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="AC27" t="n">
         <v>0.07</v>
@@ -7890,13 +7890,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>2445.0</v>
+        <v>2460.0</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
         <v>133</v>
@@ -7911,13 +7911,13 @@
         <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
         <v>215</v>
       </c>
       <c r="J28" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K28" t="n">
         <v>12.0</v>
@@ -7926,7 +7926,7 @@
         <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="N28" t="n">
         <v>1.0</v>
@@ -7974,19 +7974,19 @@
         <v>24.0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD28" t="n">
         <v>0.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AH28" t="n">
         <v>0.09</v>
@@ -7997,7 +7997,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="n">
-        <v>682.0</v>
+        <v>689.0</v>
       </c>
       <c r="C29" t="s">
         <v>121</v>
@@ -8098,19 +8098,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>773.0</v>
+        <v>780.0</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" t="s">
         <v>159</v>
@@ -8119,22 +8119,22 @@
         <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I30" t="s">
         <v>220</v>
       </c>
       <c r="J30" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K30" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="L30" t="e">
         <v>#N/A</v>
       </c>
       <c r="M30" t="n">
-        <v>28.2</v>
+        <v>29.2</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -8205,7 +8205,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="n">
-        <v>971.0</v>
+        <v>980.0</v>
       </c>
       <c r="C31" t="s">
         <v>122</v>
@@ -8309,7 +8309,7 @@
         <v>71</v>
       </c>
       <c r="B32" t="n">
-        <v>1389.0</v>
+        <v>1401.0</v>
       </c>
       <c r="C32" t="s">
         <v>123</v>
@@ -8413,7 +8413,7 @@
         <v>72</v>
       </c>
       <c r="B33" t="n">
-        <v>1872.0</v>
+        <v>1885.0</v>
       </c>
       <c r="C33" t="s">
         <v>124</v>
@@ -8437,16 +8437,16 @@
         <v>221</v>
       </c>
       <c r="J33" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K33" t="n">
         <v>7.0</v>
       </c>
       <c r="L33" t="n">
-        <v>649.0</v>
+        <v>661.0</v>
       </c>
       <c r="M33" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -8488,28 +8488,28 @@
         <v>28.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AF33" t="n">
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="34">
@@ -8517,16 +8517,16 @@
         <v>73</v>
       </c>
       <c r="B34" t="n">
-        <v>1940.0</v>
+        <v>1953.0</v>
       </c>
       <c r="C34" t="s">
         <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
         <v>159</v>
@@ -8618,13 +8618,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="n">
-        <v>2664.0</v>
+        <v>2680.0</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
         <v>133</v>
@@ -8639,22 +8639,22 @@
         <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I35" t="s">
         <v>227</v>
       </c>
       <c r="J35" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K35" t="n">
         <v>28.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>27.0</v>
       </c>
       <c r="L35" t="e">
         <v>#N/A</v>
       </c>
       <c r="M35" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="N35" t="n">
         <v>0.0</v>
@@ -8693,28 +8693,28 @@
         <v>3.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="AA35" t="n">
-        <v>142.0</v>
+        <v>146.0</v>
       </c>
       <c r="AB35" t="n">
-        <v>164.0</v>
+        <v>165.0</v>
       </c>
       <c r="AC35" t="n">
         <v>0.0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AF35" t="n">
         <v>0.0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AH35" t="n">
         <v>0.01</v>
@@ -8725,7 +8725,7 @@
         <v>27</v>
       </c>
       <c r="B36" t="n">
-        <v>191.0</v>
+        <v>194.0</v>
       </c>
       <c r="C36" t="s">
         <v>79</v>
@@ -8749,7 +8749,7 @@
         <v>216</v>
       </c>
       <c r="J36" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K36" t="n">
         <v>14.0</v>
@@ -8758,7 +8758,7 @@
         <v>#N/A</v>
       </c>
       <c r="M36" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N36" t="n">
         <v>0.0</v>
@@ -8829,7 +8829,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>208.0</v>
+        <v>211.0</v>
       </c>
       <c r="C37" t="s">
         <v>112</v>
@@ -8853,13 +8853,13 @@
         <v>216</v>
       </c>
       <c r="J37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K37" t="n">
         <v>2.0</v>
       </c>
       <c r="L37" t="n">
-        <v>181.0</v>
+        <v>182.0</v>
       </c>
       <c r="M37" t="n">
         <v>2.0</v>
@@ -8904,7 +8904,7 @@
         <v>5.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB37" t="n">
         <v>9.0</v>
@@ -8933,7 +8933,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="n">
-        <v>319.0</v>
+        <v>322.0</v>
       </c>
       <c r="C38" t="s">
         <v>126</v>
@@ -9037,13 +9037,13 @@
         <v>61</v>
       </c>
       <c r="B39" t="n">
-        <v>607.0</v>
+        <v>614.0</v>
       </c>
       <c r="C39" t="s">
         <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
         <v>149</v>
@@ -9141,7 +9141,7 @@
         <v>62</v>
       </c>
       <c r="B40" t="n">
-        <v>798.0</v>
+        <v>805.0</v>
       </c>
       <c r="C40" t="s">
         <v>114</v>
@@ -9165,16 +9165,16 @@
         <v>216</v>
       </c>
       <c r="J40" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="K40" t="n">
         <v>3.0</v>
       </c>
       <c r="L40" t="n">
-        <v>261.0</v>
+        <v>291.0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -9201,43 +9201,43 @@
         <v>0.0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="W40" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="X40" t="n">
-        <v>1.0</v>
+        <v>1.2</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="Z40" t="n">
         <v>13.0</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB40" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="AC40" t="n">
         <v>0.0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="AF40" t="n">
         <v>0.0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
@@ -9245,7 +9245,7 @@
         <v>31</v>
       </c>
       <c r="B41" t="n">
-        <v>952.0</v>
+        <v>961.0</v>
       </c>
       <c r="C41" t="s">
         <v>83</v>
@@ -9269,16 +9269,16 @@
         <v>219</v>
       </c>
       <c r="J41" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="K41" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L41" t="e">
         <v>#N/A</v>
       </c>
       <c r="M41" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -9320,7 +9320,7 @@
         <v>35.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>178.0</v>
+        <v>183.0</v>
       </c>
       <c r="AB41" t="n">
         <v>33.0</v>
@@ -9349,7 +9349,7 @@
         <v>36</v>
       </c>
       <c r="B42" t="n">
-        <v>1082.0</v>
+        <v>1091.0</v>
       </c>
       <c r="C42" t="s">
         <v>88</v>
@@ -9453,13 +9453,13 @@
         <v>37</v>
       </c>
       <c r="B43" t="n">
-        <v>1151.0</v>
+        <v>1161.0</v>
       </c>
       <c r="C43" t="s">
         <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
         <v>152</v>
@@ -9477,16 +9477,16 @@
         <v>221</v>
       </c>
       <c r="J43" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K43" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="L43" t="e">
         <v>#N/A</v>
       </c>
       <c r="M43" t="n">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -9525,10 +9525,10 @@
         <v>0.9</v>
       </c>
       <c r="Z43" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>93.0</v>
+        <v>97.0</v>
       </c>
       <c r="AB43" t="n">
         <v>11.0</v>
@@ -9557,7 +9557,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>1381.0</v>
+        <v>1393.0</v>
       </c>
       <c r="C44" t="s">
         <v>105</v>
@@ -9658,16 +9658,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1386.0</v>
+        <v>1398.0</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
         <v>157</v>
@@ -9679,7 +9679,7 @@
         <v>161</v>
       </c>
       <c r="H45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I45" t="s">
         <v>222</v>
@@ -9762,13 +9762,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1707.0</v>
+        <v>1719.0</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
         <v>133</v>
@@ -9783,7 +9783,7 @@
         <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I46" t="s">
         <v>226</v>
@@ -9869,7 +9869,7 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>1734.0</v>
+        <v>1746.0</v>
       </c>
       <c r="C47" t="s">
         <v>106</v>
@@ -9893,13 +9893,13 @@
         <v>229</v>
       </c>
       <c r="J47" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K47" t="n">
         <v>5.0</v>
       </c>
       <c r="L47" t="n">
-        <v>501.0</v>
+        <v>504.0</v>
       </c>
       <c r="M47" t="n">
         <v>5.6</v>
@@ -9973,7 +9973,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>1884.0</v>
+        <v>1897.0</v>
       </c>
       <c r="C48" t="s">
         <v>118</v>
@@ -10077,7 +10077,7 @@
         <v>75</v>
       </c>
       <c r="B49" t="n">
-        <v>1897.0</v>
+        <v>1910.0</v>
       </c>
       <c r="C49" t="s">
         <v>127</v>
@@ -10181,7 +10181,7 @@
         <v>76</v>
       </c>
       <c r="B50" t="n">
-        <v>2436.0</v>
+        <v>2451.0</v>
       </c>
       <c r="C50" t="s">
         <v>128</v>
@@ -10190,7 +10190,7 @@
         <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
         <v>160</v>
@@ -10285,7 +10285,7 @@
         <v>39</v>
       </c>
       <c r="B51" t="n">
-        <v>2613.0</v>
+        <v>2629.0</v>
       </c>
       <c r="C51" t="s">
         <v>91</v>
@@ -10309,16 +10309,16 @@
         <v>224</v>
       </c>
       <c r="J51" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K51" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L51" t="e">
         <v>#N/A</v>
       </c>
       <c r="M51" t="n">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
       <c r="N51" t="n">
         <v>0.0</v>
@@ -10354,16 +10354,16 @@
         <v>0.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z51" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA51" t="n">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="AB51" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="AC51" t="n">
         <v>0.0</v>
@@ -10389,7 +10389,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="n">
-        <v>2616.0</v>
+        <v>2632.0</v>
       </c>
       <c r="C52" t="s">
         <v>107</v>
@@ -10398,7 +10398,7 @@
         <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
         <v>160</v>
@@ -10413,16 +10413,16 @@
         <v>225</v>
       </c>
       <c r="J52" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K52" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L52" t="e">
         <v>#N/A</v>
       </c>
       <c r="M52" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -10493,7 +10493,7 @@
         <v>56</v>
       </c>
       <c r="B53" t="n">
-        <v>2672.0</v>
+        <v>2689.0</v>
       </c>
       <c r="C53" t="s">
         <v>108</v>
@@ -10517,16 +10517,16 @@
         <v>217</v>
       </c>
       <c r="J53" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K53" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L53" t="n">
-        <v>784.0</v>
+        <v>874.0</v>
       </c>
       <c r="M53" t="n">
-        <v>8.7</v>
+        <v>9.7</v>
       </c>
       <c r="N53" t="n">
         <v>0.0</v>
@@ -10565,10 +10565,10 @@
         <v>0.4</v>
       </c>
       <c r="Z53" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="AA53" t="n">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="AB53" t="n">
         <v>2.0</v>
